--- a/docs/Gerenciamento de Qualidade/CheckList_ehSoja.xlsx
+++ b/docs/Gerenciamento de Qualidade/CheckList_ehSoja.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\api-6-semestre\docs\Gerenciamento de Qualidade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC058FF3-B202-4F09-A506-ED40C5D69A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B537A29-46BC-4989-98FC-2A8D782BB376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
   <si>
     <t>Lista de Verificação da Qualidade - Processos de Gerenciamento de Projeto do Planejamento (Metodologia da Escritório de Projetos)</t>
   </si>
@@ -102,9 +102,6 @@
     <t>9.1 Desenvolver o plano de recursos humanos</t>
   </si>
   <si>
-    <t>Conjunto de habilidades requeridas por função identificado.</t>
-  </si>
-  <si>
     <t>Membros da equipe do projeto alocados ou contratados.</t>
   </si>
   <si>
@@ -159,76 +156,94 @@
     <t>Row Labels</t>
   </si>
   <si>
-    <t>[ ] Definido qual informação é necessária, quem gera, quem recebe, quando e como será comunicado.</t>
-  </si>
-  <si>
-    <t>[ ] Riscos potenciais identificados.</t>
-  </si>
-  <si>
     <t>[ ] Impacto e a probabilidade de ocorrência dos riscos identificados.</t>
   </si>
   <si>
-    <t>[ ] Definido abordagem, ferramentas e workflow usado para avaliar os pedidos de mudança.</t>
-  </si>
-  <si>
     <t>[ ] Determinado o plano de resposta aos riscos.</t>
   </si>
   <si>
-    <t>[ ] Linhas de base de prazo, custo e escopo salvas após a aprovação do plano do projeto</t>
-  </si>
-  <si>
-    <t>[ ] Plano de projeto concluído e aprovado</t>
-  </si>
-  <si>
-    <t>[ ] Plano de projeto distribuído conforme definido no plano</t>
-  </si>
-  <si>
-    <t>[ ] Definido objetivos do projeto</t>
-  </si>
-  <si>
-    <t>[ ] Definido todas entregas e marcos de forma clara (Específico, Mensurável e Alcançável)</t>
-  </si>
-  <si>
-    <t>[ ] Desenvolvido processo de aceitação de entrega</t>
-  </si>
-  <si>
-    <t>[ ] Cronograma e Orçamento criado e validado pela equipe de projeto com todas as atividades do projeto e os recursos necessários para executá-las</t>
-  </si>
-  <si>
-    <t>[ ] Definido processo que assegurará o cumprimento dos requisitos do cliente e as políticas e padrões da empresa.</t>
-  </si>
-  <si>
-    <t>[ ] Estabelecido os critérios de aceitação das entregas e como e quando serão verificados.</t>
-  </si>
-  <si>
-    <t>[ ] Estabelecido pré-requisitos para as principais atividades do projeto</t>
-  </si>
-  <si>
-    <t>[ ] Processo de auditoria para avaliar o desempenho do projeto definido.</t>
-  </si>
-  <si>
-    <t>[ ] Projeto aderente com as políticas e padrões definidos pela empresa.</t>
-  </si>
-  <si>
-    <t>[ ] Conjunto de habilidades requeridas por função identificado.</t>
-  </si>
-  <si>
     <t>[ ] Membros da equipe do projeto alocados ou contratados.</t>
   </si>
   <si>
     <t>[ ] Membros da equipe estão alocados e comprometidos com o projeto.</t>
   </si>
   <si>
-    <t>[ ] Organização do projeto incluindo funções e responsabilidades descritas no plano do projeto.</t>
-  </si>
-  <si>
-    <t>[ ] Gerenciamento do controle de mudanças aprovado através do plano de projeto.</t>
-  </si>
-  <si>
     <t>Grand Total</t>
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>É necessário pedir mais feedbacks do cliente</t>
+  </si>
+  <si>
+    <t>Conjunto de habilidades requeridas por função identificada.</t>
+  </si>
+  <si>
+    <t>Por falta de profissionais qualificados</t>
+  </si>
+  <si>
+    <t>Alguns membros não ainda não podem ser alocados em algumas atividades pois não há demonstração de responsabilidade</t>
+  </si>
+  <si>
+    <t>A equipe não está em harmonia, pois alguns membros não interagem constantemente e isso afeta o desempenho da equipe</t>
+  </si>
+  <si>
+    <t>Na maior parte dos casos, os problemas acontecem e tentamos ajustar os problemas na hora com o que temos</t>
+  </si>
+  <si>
+    <t>[x] Definido qual informação é necessária, quem gera, quem recebe, quando e como será comunicado.</t>
+  </si>
+  <si>
+    <t>[x] Riscos potenciais identificados.</t>
+  </si>
+  <si>
+    <t>[x] Definido abordagem, ferramentas e workflow usado para avaliar os pedidos de mudança.</t>
+  </si>
+  <si>
+    <t>[x] Linhas de base de prazo, custo e escopo salvas após a aprovação do plano do projeto</t>
+  </si>
+  <si>
+    <t>[x] Plano de projeto concluído e aprovado</t>
+  </si>
+  <si>
+    <t>[x] Plano de projeto distribuído conforme definido no plano</t>
+  </si>
+  <si>
+    <t>[x] Definido objetivos do projeto</t>
+  </si>
+  <si>
+    <t>[x] Definido todas entregas e marcos de forma clara (Específico, Mensurável e Alcançável)</t>
+  </si>
+  <si>
+    <t>[x] Desenvolvido processo de aceitação de entrega</t>
+  </si>
+  <si>
+    <t>[x] Cronograma e Orçamento criado e validado pela equipe de projeto com todas as atividades do projeto e os recursos necessários para executá-las</t>
+  </si>
+  <si>
+    <t>[x] Definido processo que assegurará o cumprimento dos requisitos do cliente e as políticas e padrões da empresa.</t>
+  </si>
+  <si>
+    <t>[x] Estabelecido os critérios de aceitação das entregas e como e quando serão verificados.</t>
+  </si>
+  <si>
+    <t>[x] Estabelecido pré-requisitos para as principais atividades do projeto</t>
+  </si>
+  <si>
+    <t>[x] Processo de auditoria para avaliar o desempenho do projeto definido.</t>
+  </si>
+  <si>
+    <t>[x] Projeto aderente com as políticas e padrões definidos pela empresa.</t>
+  </si>
+  <si>
+    <t>[x] Conjunto de habilidades requeridas por função identificado.</t>
+  </si>
+  <si>
+    <t>[x] Organização do projeto incluindo funções e responsabilidades descritas no plano do projeto.</t>
+  </si>
+  <si>
+    <t>[x] Gerenciamento do controle de mudanças aprovado através do plano de projeto.</t>
   </si>
 </sst>
 </file>
@@ -285,7 +300,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -308,11 +323,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -350,6 +385,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,28 +605,28 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="23">
-        <item x="11"/>
-        <item x="15"/>
-        <item x="20"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="16"/>
-        <item x="4"/>
-        <item x="5"/>
+        <item n="[x] Conjunto de habilidades requeridas por função identificado." x="11"/>
+        <item n="[x] Cronograma e Orçamento criado e validado pela equipe de projeto com todas as atividades do projeto e os recursos necessários para executá-las" x="15"/>
+        <item n="[x] Definido abordagem, ferramentas e workflow usado para avaliar os pedidos de mudança." x="20"/>
+        <item n="[x] Definido objetivos do projeto" x="3"/>
+        <item n="[x] Definido processo que assegurará o cumprimento dos requisitos do cliente e as políticas e padrões da empresa." x="8"/>
+        <item n="[x] Definido qual informação é necessária, quem gera, quem recebe, quando e como será comunicado." x="16"/>
+        <item n="[x] Definido todas entregas e marcos de forma clara (Específico, Mensurável e Alcançável)" x="4"/>
+        <item n="[x] Desenvolvido processo de aceitação de entrega" x="5"/>
         <item x="19"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="21"/>
+        <item n="[x] Estabelecido os critérios de aceitação das entregas e como e quando serão verificados." x="9"/>
+        <item n="[x] Estabelecido pré-requisitos para as principais atividades do projeto" x="10"/>
+        <item n="[x] Gerenciamento do controle de mudanças aprovado através do plano de projeto." x="21"/>
         <item x="18"/>
-        <item x="2"/>
+        <item n="[x] Linhas de base de prazo, custo e escopo salvas após a aprovação do plano do projeto" x="2"/>
         <item x="12"/>
         <item x="14"/>
-        <item x="13"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="17"/>
+        <item n="[x] Organização do projeto incluindo funções e responsabilidades descritas no plano do projeto." x="13"/>
+        <item n="[x] Plano de projeto concluído e aprovado" x="0"/>
+        <item n="[x] Plano de projeto distribuído conforme definido no plano" x="1"/>
+        <item n="[x] Processo de auditoria para avaliar o desempenho do projeto definido." x="7"/>
+        <item n="[x] Projeto aderente com as políticas e padrões definidos pela empresa." x="6"/>
+        <item n="[x] Riscos potenciais identificados." x="17"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1039,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="49.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,11 +1094,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -1084,7 +1127,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="5"/>
@@ -1097,7 +1140,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="7"/>
@@ -1110,7 +1153,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="5"/>
@@ -1123,7 +1166,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D6" s="15"/>
     </row>
@@ -1135,7 +1178,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D7" s="15"/>
     </row>
@@ -1147,7 +1190,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D8" s="15"/>
     </row>
@@ -1159,7 +1202,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="7"/>
@@ -1173,9 +1216,11 @@
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -1185,7 +1230,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="7"/>
@@ -1198,7 +1243,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="7"/>
@@ -1211,7 +1256,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="7"/>
@@ -1221,11 +1266,14 @@
         <v>20</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="s">
-        <v>63</v>
+        <v>44</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1233,11 +1281,14 @@
         <v>20</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
-        <v>63</v>
+        <v>44</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1245,10 +1296,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D16" s="15"/>
     </row>
@@ -1257,102 +1308,110 @@
         <v>20</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15" t="s">
-        <v>63</v>
+        <v>44</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="C18" s="14" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="C19" s="15" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="C20" s="14" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="C21" s="15" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D21" s="15"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="C22" s="14" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="C24" s="15" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D24" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1362,8 +1421,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:A36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" activeCellId="1" sqref="A4 A6 A8 A10 A13 A17 A21 A23 A29 A34"/>
+      <pivotSelection pane="bottomRight" showHeader="1" axis="axisRow" activeRow="5" previousRow="5" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+          <references count="1">
+            <reference field="0" count="0"/>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,58 +1440,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>38</v>
+      <c r="A2" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -1435,17 +1501,17 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -1455,27 +1521,27 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -1485,27 +1551,27 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
@@ -1515,37 +1581,37 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1554,6 +1620,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e62effa8-c612-4657-b64e-83124bbab7cb" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d78dacd4-ba8a-4506-8839-a918012505f4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003DBE3F774DAFDB43B7AECC64F026BC1B" ma:contentTypeVersion="8" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="0a465c94922a95d2e8b01b0e1fef8400">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d78dacd4-ba8a-4506-8839-a918012505f4" xmlns:ns3="e62effa8-c612-4657-b64e-83124bbab7cb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ad5cb4dfe284b571df67547a72c05143" ns2:_="" ns3:_="">
     <xsd:import namespace="d78dacd4-ba8a-4506-8839-a918012505f4"/>
@@ -1730,27 +1816,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e62effa8-c612-4657-b64e-83124bbab7cb" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d78dacd4-ba8a-4506-8839-a918012505f4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33286817-5B5B-47E8-B620-E5582343F770}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4D74005-AF0F-436E-A5ED-89FA61229623}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e62effa8-c612-4657-b64e-83124bbab7cb"/>
+    <ds:schemaRef ds:uri="d78dacd4-ba8a-4506-8839-a918012505f4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{863F738E-D9FE-4C23-A75C-6AF0E2CE6215}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1767,23 +1852,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4D74005-AF0F-436E-A5ED-89FA61229623}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e62effa8-c612-4657-b64e-83124bbab7cb"/>
-    <ds:schemaRef ds:uri="d78dacd4-ba8a-4506-8839-a918012505f4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33286817-5B5B-47E8-B620-E5582343F770}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/Gerenciamento de Qualidade/CheckList_ehSoja.xlsx
+++ b/docs/Gerenciamento de Qualidade/CheckList_ehSoja.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\api-6-semestre\docs\Gerenciamento de Qualidade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B537A29-46BC-4989-98FC-2A8D782BB376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B240516A-2BC4-46EF-A45A-88445E8A99A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,29 +347,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -386,17 +374,171 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="44">
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" indent="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -585,7 +727,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -606,7 +748,6 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="23">
         <item n="[x] Conjunto de habilidades requeridas por função identificado." x="11"/>
-        <item n="[x] Cronograma e Orçamento criado e validado pela equipe de projeto com todas as atividades do projeto e os recursos necessários para executá-las" x="15"/>
         <item n="[x] Definido abordagem, ferramentas e workflow usado para avaliar os pedidos de mudança." x="20"/>
         <item n="[x] Definido objetivos do projeto" x="3"/>
         <item n="[x] Definido processo que assegurará o cumprimento dos requisitos do cliente e as políticas e padrões da empresa." x="8"/>
@@ -627,6 +768,7 @@
         <item n="[x] Processo de auditoria para avaliar o desempenho do projeto definido." x="7"/>
         <item n="[x] Projeto aderente com as políticas e padrões definidos pela empresa." x="6"/>
         <item n="[x] Riscos potenciais identificados." x="17"/>
+        <item n="[x] Cronograma e Orçamento criado e validado pela equipe de projeto com todas as atividades do projeto e os recursos necessários para executá-las" x="15"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -646,97 +788,97 @@
       <x/>
     </i>
     <i r="1">
-      <x v="5"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i r="1">
-      <x v="21"/>
+      <x v="20"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i r="1">
-      <x v="12"/>
+      <x v="11"/>
     </i>
     <i>
       <x v="3"/>
     </i>
     <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
       <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
     </i>
     <i r="1">
       <x v="8"/>
     </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
     <i>
-      <x v="4"/>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x/>
     </i>
     <i r="1">
       <x v="13"/>
     </i>
     <i r="1">
-      <x v="17"/>
+      <x v="14"/>
     </i>
     <i r="1">
-      <x v="18"/>
+      <x v="15"/>
     </i>
     <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
       <x v="9"/>
     </i>
     <i r="1">
       <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="19"/>
-    </i>
-    <i r="1">
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="15"/>
-    </i>
-    <i r="1">
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
     </i>
     <i t="grand">
       <x/>
@@ -745,6 +887,304 @@
   <colItems count="1">
     <i/>
   </colItems>
+  <formats count="28">
+    <format dxfId="43">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="40">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="39">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="38">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="37">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="36">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="20"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="35">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="34">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="1" count="2">
+            <x v="1"/>
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="33">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="1" count="3">
+            <x v="12"/>
+            <x v="16"/>
+            <x v="17"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="32">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="1" count="3">
+            <x v="2"/>
+            <x v="5"/>
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="31">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="21"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="30">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="1" count="5">
+            <x v="3"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="18"/>
+            <x v="19"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="29">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+          <reference field="1" count="4">
+            <x v="0"/>
+            <x v="13"/>
+            <x v="14"/>
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="28">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="27">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="20"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="1" count="2">
+            <x v="1"/>
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="1" count="3">
+            <x v="12"/>
+            <x v="16"/>
+            <x v="17"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="1" count="3">
+            <x v="2"/>
+            <x v="5"/>
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="21"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="1" count="5">
+            <x v="3"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="18"/>
+            <x v="19"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+          <reference field="1" count="4">
+            <x v="0"/>
+            <x v="13"/>
+            <x v="14"/>
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -1080,340 +1520,341 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E2" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="49.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.5703125" style="8"/>
-    <col min="2" max="2" width="48.140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="11" customWidth="1"/>
-    <col min="5" max="16384" width="49.5703125" style="8"/>
+    <col min="1" max="1" width="22.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="29" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="49.5703125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="5"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="15"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="D22" s="8"/>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1421,201 +1862,195 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:A36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" activeCellId="1" sqref="A4 A6 A8 A10 A13 A17 A21 A23 A29 A34"/>
-      <pivotSelection pane="bottomRight" showHeader="1" axis="axisRow" activeRow="5" previousRow="5" click="1" r:id="rId1">
-        <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-          <references count="1">
-            <reference field="0" count="0"/>
-          </references>
-        </pivotArea>
-      </pivotSelection>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="138.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74.7109375" style="18" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="17" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="17" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="17" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="17" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="17" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="17" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="17" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1827,10 +2262,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4D74005-AF0F-436E-A5ED-89FA61229623}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d78dacd4-ba8a-4506-8839-a918012505f4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e62effa8-c612-4657-b64e-83124bbab7cb"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e62effa8-c612-4657-b64e-83124bbab7cb"/>
-    <ds:schemaRef ds:uri="d78dacd4-ba8a-4506-8839-a918012505f4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/Gerenciamento de Qualidade/CheckList_ehSoja.xlsx
+++ b/docs/Gerenciamento de Qualidade/CheckList_ehSoja.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FATEC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\api-6-semestre\docs\Gerenciamento de Qualidade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B858923-2E5E-4026-BD5C-4859ED78B970}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60ABBDD6-F60C-467F-BA0D-FCBD9F4994EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="138">
   <si>
     <t>Lista de Verificação da Qualidade - Processos de Gerenciamento de Projeto do Planejamento (Metodologia da Escritório de Projetos)</t>
   </si>
@@ -496,12 +496,21 @@
   <si>
     <t>O projeto ainda está em andamento.</t>
   </si>
+  <si>
+    <t>Ainda não tivemos tanto avanço pois temos poucas imagens</t>
+  </si>
+  <si>
+    <t>Um definitivo ainda não foi definido</t>
+  </si>
+  <si>
+    <t>Em desenvolvimento</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,13 +529,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -616,10 +618,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -627,39 +647,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -679,7 +666,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1001,28 +988,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="49.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" style="8" customWidth="1"/>
     <col min="6" max="16384" width="49.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1042,893 +1029,797 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="14"/>
+      <c r="C3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="14"/>
+      <c r="C4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="14"/>
+      <c r="C5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="14"/>
+      <c r="C6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="14"/>
+      <c r="C7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="14"/>
+      <c r="C8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="14"/>
+      <c r="C9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="14"/>
+      <c r="C10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="14"/>
+      <c r="C11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="14"/>
+      <c r="C12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="14"/>
+      <c r="C13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="14"/>
+      <c r="C14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="14"/>
+      <c r="C15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="C16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="C17" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="C18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="C19" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="C20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="C21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="C22" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="C23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="C24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="C25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="C26" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="14"/>
-    </row>
-    <row r="28" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="C27" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="C28" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="14"/>
-    </row>
-    <row r="30" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="C29" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="14"/>
-    </row>
-    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="C30" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="14"/>
-    </row>
-    <row r="32" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+    </row>
+    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="14"/>
+      <c r="C32" s="6" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="14"/>
+      <c r="C33" s="6" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="14"/>
+      <c r="C34" s="6" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="14"/>
+      <c r="C35" s="6" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="14"/>
+      <c r="C36" s="6" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="14"/>
+      <c r="C37" s="6" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="14"/>
+      <c r="C38" s="6" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="14"/>
+      <c r="C39" s="6" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="40" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="14"/>
+      <c r="C40" s="6" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="14"/>
+      <c r="C41" s="6" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="42" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="14"/>
+      <c r="C42" s="6" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E43" s="14" t="s">
+    </row>
+    <row r="44" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E55" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E44" s="14" t="s">
+    <row r="56" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E56" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E45" s="14" t="s">
+    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E46" s="14" t="s">
+    <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E47" s="14" t="s">
+    <row r="59" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E48" s="14" t="s">
+    <row r="60" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E60" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E49" s="14" t="s">
+    <row r="61" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
     <row r="62" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D62" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E62" s="15" t="s">
+      <c r="D62" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D63" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E63" s="15" t="s">
+      <c r="D63" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D64" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E64" s="15" t="s">
+      <c r="D64" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E64" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D65" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E65" s="15" t="s">
+      <c r="D65" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D66" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E66" s="15" t="s">
+      <c r="D66" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E66" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D67" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E67" s="15" t="s">
+      <c r="D67" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E67" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D68" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E68" s="15" t="s">
+      <c r="D68" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E68" s="8" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1942,26 +1833,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e62effa8-c612-4657-b64e-83124bbab7cb" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d78dacd4-ba8a-4506-8839-a918012505f4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003DBE3F774DAFDB43B7AECC64F026BC1B" ma:contentTypeVersion="8" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="0a465c94922a95d2e8b01b0e1fef8400">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d78dacd4-ba8a-4506-8839-a918012505f4" xmlns:ns3="e62effa8-c612-4657-b64e-83124bbab7cb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ad5cb4dfe284b571df67547a72c05143" ns2:_="" ns3:_="">
     <xsd:import namespace="d78dacd4-ba8a-4506-8839-a918012505f4"/>
@@ -2138,32 +2009,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4D74005-AF0F-436E-A5ED-89FA61229623}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d78dacd4-ba8a-4506-8839-a918012505f4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="e62effa8-c612-4657-b64e-83124bbab7cb"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33286817-5B5B-47E8-B620-E5582343F770}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e62effa8-c612-4657-b64e-83124bbab7cb" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d78dacd4-ba8a-4506-8839-a918012505f4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{863F738E-D9FE-4C23-A75C-6AF0E2CE6215}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2180,4 +2046,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33286817-5B5B-47E8-B620-E5582343F770}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4D74005-AF0F-436E-A5ED-89FA61229623}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d78dacd4-ba8a-4506-8839-a918012505f4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e62effa8-c612-4657-b64e-83124bbab7cb"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/Gerenciamento de Qualidade/CheckList_ehSoja.xlsx
+++ b/docs/Gerenciamento de Qualidade/CheckList_ehSoja.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\api-6-semestre\docs\Gerenciamento de Qualidade\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\port3\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60ABBDD6-F60C-467F-BA0D-FCBD9F4994EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837A51CC-F595-48B0-905D-1C9B5DD346B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="135">
   <si>
     <t>Lista de Verificação da Qualidade - Processos de Gerenciamento de Projeto do Planejamento (Metodologia da Escritório de Projetos)</t>
   </si>
@@ -495,15 +495,6 @@
   </si>
   <si>
     <t>O projeto ainda está em andamento.</t>
-  </si>
-  <si>
-    <t>Ainda não tivemos tanto avanço pois temos poucas imagens</t>
-  </si>
-  <si>
-    <t>Um definitivo ainda não foi definido</t>
-  </si>
-  <si>
-    <t>Em desenvolvimento</t>
   </si>
 </sst>
 </file>
@@ -988,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="49.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,7 +1370,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
@@ -1390,7 +1381,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
@@ -1401,7 +1392,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>37</v>
       </c>
@@ -1412,7 +1403,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>38</v>
       </c>
@@ -1423,7 +1414,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>39</v>
       </c>
@@ -1434,7 +1425,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>40</v>
       </c>
@@ -1445,7 +1436,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>41</v>
       </c>
@@ -1456,7 +1447,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>42</v>
       </c>
@@ -1467,7 +1458,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>43</v>
       </c>
@@ -1478,7 +1469,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>44</v>
       </c>
@@ -1489,29 +1480,29 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C43" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C44" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>47</v>
       </c>
@@ -1522,7 +1513,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>48</v>
       </c>
@@ -1533,7 +1524,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>49</v>
       </c>
@@ -1544,18 +1535,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>136</v>
+      <c r="C48" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1587,11 +1575,8 @@
       <c r="B51" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>137</v>
+      <c r="C51" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1601,11 +1586,8 @@
       <c r="B52" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>137</v>
+      <c r="C52" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1625,6 +1607,9 @@
       </c>
       <c r="B54" s="5" t="s">
         <v>124</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1833,6 +1818,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e62effa8-c612-4657-b64e-83124bbab7cb" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d78dacd4-ba8a-4506-8839-a918012505f4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003DBE3F774DAFDB43B7AECC64F026BC1B" ma:contentTypeVersion="8" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="0a465c94922a95d2e8b01b0e1fef8400">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d78dacd4-ba8a-4506-8839-a918012505f4" xmlns:ns3="e62effa8-c612-4657-b64e-83124bbab7cb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ad5cb4dfe284b571df67547a72c05143" ns2:_="" ns3:_="">
     <xsd:import namespace="d78dacd4-ba8a-4506-8839-a918012505f4"/>
@@ -2009,27 +2014,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4D74005-AF0F-436E-A5ED-89FA61229623}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d78dacd4-ba8a-4506-8839-a918012505f4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e62effa8-c612-4657-b64e-83124bbab7cb"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e62effa8-c612-4657-b64e-83124bbab7cb" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d78dacd4-ba8a-4506-8839-a918012505f4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33286817-5B5B-47E8-B620-E5582343F770}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{863F738E-D9FE-4C23-A75C-6AF0E2CE6215}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2046,29 +2056,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33286817-5B5B-47E8-B620-E5582343F770}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4D74005-AF0F-436E-A5ED-89FA61229623}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d78dacd4-ba8a-4506-8839-a918012505f4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="e62effa8-c612-4657-b64e-83124bbab7cb"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>